--- a/WebContent/jsp/fee/sample.xlsx
+++ b/WebContent/jsp/fee/sample.xlsx
@@ -148,13 +148,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -163,8 +163,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38099" y="247651"/>
-          <a:ext cx="5572125" cy="5514974"/>
+          <a:off x="38099" y="247650"/>
+          <a:ext cx="5572125" cy="6896099"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -228,10 +228,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="342900" indent="-342900" algn="l">
-            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
-            <a:buChar char="l"/>
-          </a:pPr>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" altLang="zh-TW" sz="2400">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -351,11 +348,163 @@
             </a:rPr>
             <a:t>獎學金</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>網路選課退費</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>住宿生保證金退費</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新生獎學金發放</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-TW" sz="2400">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>原住民獎學金</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>11	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>學產助學金</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>生活助學金</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>13	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>土地銀行獎學金</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>14	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>教學助費</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>

--- a/WebContent/jsp/fee/sample.xlsx
+++ b/WebContent/jsp/fee/sample.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="5085"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -503,7 +499,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>教學助費</a:t>
+            <a:t>教學助理費</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -786,7 +782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
